--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16308.6865964165</v>
+        <v>3245428.632686882</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16308.6865964165</v>
+        <v>3245428.632686882</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50231.9852897292</v>
+        <v>3093196.380928261</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50231.9852897292</v>
+        <v>3093196.380928261</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266850360.324507</v>
+        <v>50298057.57578151</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13138.10626227132</v>
+        <v>1306126.145578626</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24342.12807421768</v>
+        <v>2284080.423107634</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35545.26583802488</v>
+        <v>3262034.700636644</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47400.07699180696</v>
+        <v>4238597.050982801</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59254.88814558901</v>
+        <v>5215159.401328959</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71108.90143239508</v>
+        <v>6191658.241463822</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82963.23386599154</v>
+        <v>7168220.591809974</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94817.56629958807</v>
+        <v>8144782.942156125</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106733.7227672456</v>
+        <v>9104372.973348998</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118671.4453862891</v>
+        <v>10068254.66866766</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130608.8663596205</v>
+        <v>11032220.96616598</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142546.1798125534</v>
+        <v>11996165.867105</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154483.4932654863</v>
+        <v>12960110.76804402</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166421.1083641313</v>
+        <v>13923971.06680339</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178358.8309831747</v>
+        <v>14887852.76212207</v>
       </c>
     </row>
   </sheetData>
